--- a/Financials/Quarterly/JSAIY_QTR_FIN.xlsx
+++ b/Financials/Quarterly/JSAIY_QTR_FIN.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61FA9A01-E963-4314-9A94-B5519881977A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9345"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9348" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="JSAIY" sheetId="6" r:id="rId1"/>
@@ -17,12 +18,12 @@
   <definedNames>
     <definedName name="Ticker">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="152511" calcMode="manual"/>
+  <calcPr calcId="152511" calcMode="manual" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="92">
   <si>
     <t>JSAIY</t>
   </si>
@@ -303,9 +304,9 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +348,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -444,6 +445,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -479,6 +497,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -654,155 +689,168 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="7.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="69.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43365</v>
+      </c>
+      <c r="E7" s="2">
         <v>43169</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43001</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>42805</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>42637</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42441</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42273</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42077</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>41909</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>18187500</v>
+        <v>19730300</v>
       </c>
       <c r="E8" s="3">
-        <v>19283100</v>
+        <v>18015100</v>
       </c>
       <c r="F8" s="3">
-        <v>17884600</v>
+        <v>19100300</v>
       </c>
       <c r="G8" s="3">
-        <v>16646900</v>
+        <v>17715100</v>
       </c>
       <c r="H8" s="3">
-        <v>14599300</v>
+        <v>16489100</v>
       </c>
       <c r="I8" s="3">
-        <v>16353200</v>
+        <v>14460900</v>
       </c>
       <c r="J8" s="3">
+        <v>16198200</v>
+      </c>
+      <c r="K8" s="3">
         <v>14626900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>16679800</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>17007700</v>
+        <v>18390800</v>
       </c>
       <c r="E9" s="3">
-        <v>17984700</v>
+        <v>16846500</v>
       </c>
       <c r="F9" s="3">
-        <v>16740400</v>
+        <v>17814300</v>
       </c>
       <c r="G9" s="3">
-        <v>15639500</v>
+        <v>16581700</v>
       </c>
       <c r="H9" s="3">
-        <v>13678800</v>
+        <v>15491300</v>
       </c>
       <c r="I9" s="3">
-        <v>15356400</v>
+        <v>13549200</v>
       </c>
       <c r="J9" s="3">
+        <v>15210900</v>
+      </c>
+      <c r="K9" s="3">
         <v>13693300</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>16022700</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>1179800</v>
+        <v>1339500</v>
       </c>
       <c r="E10" s="3">
-        <v>1298400</v>
+        <v>1168700</v>
       </c>
       <c r="F10" s="3">
-        <v>1144300</v>
+        <v>1286000</v>
       </c>
       <c r="G10" s="3">
-        <v>1007300</v>
+        <v>1133400</v>
       </c>
       <c r="H10" s="3">
-        <v>920400</v>
+        <v>997800</v>
       </c>
       <c r="I10" s="3">
-        <v>996800</v>
+        <v>911700</v>
       </c>
       <c r="J10" s="3">
+        <v>987400</v>
+      </c>
+      <c r="K10" s="3">
         <v>933600</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>657100</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -814,8 +862,9 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -843,8 +892,11 @@
       <c r="K12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -872,8 +924,11 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -901,8 +956,11 @@
       <c r="K14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -930,8 +988,11 @@
       <c r="K15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -940,66 +1001,73 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>17878100</v>
+        <v>19532000</v>
       </c>
       <c r="E17" s="3">
-        <v>18910400</v>
+        <v>17708600</v>
       </c>
       <c r="F17" s="3">
-        <v>17641000</v>
+        <v>18731200</v>
       </c>
       <c r="G17" s="3">
-        <v>16045100</v>
+        <v>17473800</v>
       </c>
       <c r="H17" s="3">
-        <v>14225300</v>
+        <v>15893000</v>
       </c>
       <c r="I17" s="3">
-        <v>15796200</v>
+        <v>14090500</v>
       </c>
       <c r="J17" s="3">
+        <v>15646500</v>
+      </c>
+      <c r="K17" s="3">
         <v>14212100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>16987900</v>
       </c>
     </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>309400</v>
+        <v>198300</v>
       </c>
       <c r="E18" s="3">
-        <v>372700</v>
+        <v>306500</v>
       </c>
       <c r="F18" s="3">
-        <v>243600</v>
+        <v>369100</v>
       </c>
       <c r="G18" s="3">
-        <v>601800</v>
+        <v>241300</v>
       </c>
       <c r="H18" s="3">
-        <v>374000</v>
+        <v>596100</v>
       </c>
       <c r="I18" s="3">
-        <v>557000</v>
+        <v>370400</v>
       </c>
       <c r="J18" s="3">
+        <v>551700</v>
+      </c>
+      <c r="K18" s="3">
         <v>414800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-308100</v>
       </c>
     </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1011,153 +1079,169 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>7900</v>
+        <v>28700</v>
       </c>
       <c r="E20" s="3">
-        <v>-7900</v>
+        <v>7800</v>
       </c>
       <c r="F20" s="3">
+        <v>-7800</v>
+      </c>
+      <c r="G20" s="3">
         <v>-2600</v>
       </c>
-      <c r="G20" s="3">
-        <v>-30300</v>
-      </c>
       <c r="H20" s="3">
-        <v>-25000</v>
+        <v>-30000</v>
       </c>
       <c r="I20" s="3">
-        <v>-26300</v>
+        <v>-24800</v>
       </c>
       <c r="J20" s="3">
+        <v>-26100</v>
+      </c>
+      <c r="K20" s="3">
         <v>-48700</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>9200</v>
       </c>
     </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>803200</v>
+        <v>786500</v>
       </c>
       <c r="E21" s="3">
-        <v>841400</v>
+        <v>795600</v>
       </c>
       <c r="F21" s="3">
-        <v>637300</v>
+        <v>833500</v>
       </c>
       <c r="G21" s="3">
-        <v>1002100</v>
+        <v>631300</v>
       </c>
       <c r="H21" s="3">
-        <v>712400</v>
+        <v>992600</v>
       </c>
       <c r="I21" s="3">
-        <v>936200</v>
+        <v>705600</v>
       </c>
       <c r="J21" s="3">
+        <v>927400</v>
+      </c>
+      <c r="K21" s="3">
         <v>709700</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>119800</v>
       </c>
     </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>68500</v>
+        <v>54800</v>
       </c>
       <c r="E22" s="3">
-        <v>75100</v>
+        <v>67800</v>
       </c>
       <c r="F22" s="3">
-        <v>68500</v>
+        <v>74300</v>
       </c>
       <c r="G22" s="3">
-        <v>81600</v>
+        <v>67800</v>
       </c>
       <c r="H22" s="3">
-        <v>73700</v>
+        <v>80900</v>
       </c>
       <c r="I22" s="3">
-        <v>84300</v>
+        <v>73000</v>
       </c>
       <c r="J22" s="3">
+        <v>83500</v>
+      </c>
+      <c r="K22" s="3">
         <v>79000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>83000</v>
       </c>
     </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>248900</v>
+        <v>172200</v>
       </c>
       <c r="E23" s="3">
-        <v>289700</v>
+        <v>246500</v>
       </c>
       <c r="F23" s="3">
-        <v>172500</v>
+        <v>286900</v>
       </c>
       <c r="G23" s="3">
-        <v>489800</v>
+        <v>170900</v>
       </c>
       <c r="H23" s="3">
-        <v>275200</v>
+        <v>485200</v>
       </c>
       <c r="I23" s="3">
-        <v>446400</v>
+        <v>272600</v>
       </c>
       <c r="J23" s="3">
+        <v>442200</v>
+      </c>
+      <c r="K23" s="3">
         <v>287100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-381900</v>
       </c>
     </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>60600</v>
+        <v>-15700</v>
       </c>
       <c r="E24" s="3">
+        <v>60000</v>
+      </c>
+      <c r="F24" s="3">
+        <v>70400</v>
+      </c>
+      <c r="G24" s="3">
+        <v>69100</v>
+      </c>
+      <c r="H24" s="3">
+        <v>95200</v>
+      </c>
+      <c r="I24" s="3">
+        <v>2600</v>
+      </c>
+      <c r="J24" s="3">
+        <v>97800</v>
+      </c>
+      <c r="K24" s="3">
+        <v>52700</v>
+      </c>
+      <c r="L24" s="3">
         <v>71100</v>
       </c>
-      <c r="F24" s="3">
-        <v>69800</v>
-      </c>
-      <c r="G24" s="3">
-        <v>96100</v>
-      </c>
-      <c r="H24" s="3">
-        <v>2600</v>
-      </c>
-      <c r="I24" s="3">
-        <v>98800</v>
-      </c>
-      <c r="J24" s="3">
-        <v>52700</v>
-      </c>
-      <c r="K24" s="3">
-        <v>71100</v>
-      </c>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="25" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1185,66 +1269,75 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>188300</v>
+        <v>187800</v>
       </c>
       <c r="E26" s="3">
-        <v>218600</v>
+        <v>186500</v>
       </c>
       <c r="F26" s="3">
-        <v>102700</v>
+        <v>216500</v>
       </c>
       <c r="G26" s="3">
-        <v>393700</v>
+        <v>101700</v>
       </c>
       <c r="H26" s="3">
-        <v>272600</v>
+        <v>390000</v>
       </c>
       <c r="I26" s="3">
-        <v>347600</v>
+        <v>270000</v>
       </c>
       <c r="J26" s="3">
+        <v>344300</v>
+      </c>
+      <c r="K26" s="3">
         <v>234400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-453000</v>
       </c>
     </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>177800</v>
+        <v>174800</v>
       </c>
       <c r="E27" s="3">
-        <v>205400</v>
+        <v>176100</v>
       </c>
       <c r="F27" s="3">
-        <v>92200</v>
+        <v>203500</v>
       </c>
       <c r="G27" s="3">
-        <v>380600</v>
+        <v>91300</v>
       </c>
       <c r="H27" s="3">
-        <v>259400</v>
+        <v>376900</v>
       </c>
       <c r="I27" s="3">
-        <v>345000</v>
+        <v>256900</v>
       </c>
       <c r="J27" s="3">
+        <v>341700</v>
+      </c>
+      <c r="K27" s="3">
         <v>234400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-453000</v>
       </c>
     </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1272,8 +1365,11 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1301,8 +1397,11 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1330,8 +1429,11 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1359,66 +1461,75 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-7900</v>
+        <v>-28700</v>
       </c>
       <c r="E32" s="3">
-        <v>7900</v>
+        <v>-7800</v>
       </c>
       <c r="F32" s="3">
+        <v>7800</v>
+      </c>
+      <c r="G32" s="3">
         <v>2600</v>
       </c>
-      <c r="G32" s="3">
-        <v>30300</v>
-      </c>
       <c r="H32" s="3">
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="I32" s="3">
-        <v>26300</v>
+        <v>24800</v>
       </c>
       <c r="J32" s="3">
+        <v>26100</v>
+      </c>
+      <c r="K32" s="3">
         <v>48700</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-9200</v>
       </c>
     </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>177800</v>
+        <v>174800</v>
       </c>
       <c r="E33" s="3">
-        <v>205400</v>
+        <v>176100</v>
       </c>
       <c r="F33" s="3">
-        <v>92200</v>
+        <v>203500</v>
       </c>
       <c r="G33" s="3">
-        <v>380600</v>
+        <v>91300</v>
       </c>
       <c r="H33" s="3">
-        <v>259400</v>
+        <v>376900</v>
       </c>
       <c r="I33" s="3">
-        <v>345000</v>
+        <v>256900</v>
       </c>
       <c r="J33" s="3">
+        <v>341700</v>
+      </c>
+      <c r="K33" s="3">
         <v>234400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-453000</v>
       </c>
     </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1446,71 +1557,80 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>177800</v>
+        <v>174800</v>
       </c>
       <c r="E35" s="3">
-        <v>205400</v>
+        <v>176100</v>
       </c>
       <c r="F35" s="3">
-        <v>92200</v>
+        <v>203500</v>
       </c>
       <c r="G35" s="3">
-        <v>380600</v>
+        <v>91300</v>
       </c>
       <c r="H35" s="3">
-        <v>259400</v>
+        <v>376900</v>
       </c>
       <c r="I35" s="3">
-        <v>345000</v>
+        <v>256900</v>
       </c>
       <c r="J35" s="3">
+        <v>341700</v>
+      </c>
+      <c r="K35" s="3">
         <v>234400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-453000</v>
       </c>
     </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43365</v>
+      </c>
+      <c r="E38" s="2">
         <v>43169</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43001</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>42805</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>42637</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42441</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42273</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42077</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>41909</v>
       </c>
     </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1522,8 +1642,9 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1535,269 +1656,297 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1378700</v>
+        <v>1171300</v>
       </c>
       <c r="E41" s="3">
-        <v>1435300</v>
+        <v>1365600</v>
       </c>
       <c r="F41" s="3">
-        <v>1108700</v>
+        <v>1421700</v>
       </c>
       <c r="G41" s="3">
-        <v>1409000</v>
+        <v>1098200</v>
       </c>
       <c r="H41" s="3">
-        <v>1124500</v>
+        <v>1395600</v>
       </c>
       <c r="I41" s="3">
-        <v>1509000</v>
+        <v>1113900</v>
       </c>
       <c r="J41" s="3">
+        <v>1494700</v>
+      </c>
+      <c r="K41" s="3">
         <v>1692100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1865900</v>
       </c>
     </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>1166700</v>
+        <v>1197400</v>
       </c>
       <c r="E42" s="3">
-        <v>499100</v>
+        <v>1155600</v>
       </c>
       <c r="F42" s="3">
-        <v>449000</v>
+        <v>494300</v>
       </c>
       <c r="G42" s="3">
-        <v>314700</v>
+        <v>444800</v>
       </c>
       <c r="H42" s="3">
-        <v>443800</v>
+        <v>311700</v>
       </c>
       <c r="I42" s="3">
-        <v>158000</v>
-      </c>
-      <c r="J42" s="3" t="s">
-        <v>8</v>
+        <v>439600</v>
+      </c>
+      <c r="J42" s="3">
+        <v>156500</v>
       </c>
       <c r="K42" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L42" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>5404100</v>
+        <v>5401100</v>
       </c>
       <c r="E43" s="3">
-        <v>4760200</v>
+        <v>5352900</v>
       </c>
       <c r="F43" s="3">
-        <v>4292700</v>
+        <v>4715100</v>
       </c>
       <c r="G43" s="3">
-        <v>4217700</v>
+        <v>4252100</v>
       </c>
       <c r="H43" s="3">
-        <v>2900900</v>
+        <v>4177700</v>
       </c>
       <c r="I43" s="3">
-        <v>3015400</v>
+        <v>2873400</v>
       </c>
       <c r="J43" s="3">
+        <v>2986900</v>
+      </c>
+      <c r="K43" s="3">
         <v>2725800</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>2561200</v>
       </c>
     </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>2383400</v>
+        <v>2450800</v>
       </c>
       <c r="E44" s="3">
-        <v>2538800</v>
+        <v>2360800</v>
       </c>
       <c r="F44" s="3">
-        <v>2337300</v>
+        <v>2514700</v>
       </c>
       <c r="G44" s="3">
-        <v>2505900</v>
+        <v>2315200</v>
       </c>
       <c r="H44" s="3">
-        <v>1274700</v>
+        <v>2482100</v>
       </c>
       <c r="I44" s="3">
-        <v>1333900</v>
+        <v>1262600</v>
       </c>
       <c r="J44" s="3">
+        <v>1321300</v>
+      </c>
+      <c r="K44" s="3">
         <v>1312800</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>1389200</v>
       </c>
     </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>13200</v>
+        <v>61300</v>
       </c>
       <c r="E45" s="3">
-        <v>23700</v>
+        <v>13000</v>
       </c>
       <c r="F45" s="3">
-        <v>123800</v>
+        <v>23500</v>
       </c>
       <c r="G45" s="3">
-        <v>179100</v>
+        <v>122600</v>
       </c>
       <c r="H45" s="3">
-        <v>67200</v>
+        <v>177400</v>
       </c>
       <c r="I45" s="3">
-        <v>59300</v>
+        <v>66500</v>
       </c>
       <c r="J45" s="3">
+        <v>58700</v>
+      </c>
+      <c r="K45" s="3">
         <v>90900</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>61900</v>
       </c>
     </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>10346000</v>
+        <v>10281900</v>
       </c>
       <c r="E46" s="3">
-        <v>9257000</v>
+        <v>10248000</v>
       </c>
       <c r="F46" s="3">
-        <v>8311600</v>
+        <v>9169300</v>
       </c>
       <c r="G46" s="3">
-        <v>8626300</v>
+        <v>8232800</v>
       </c>
       <c r="H46" s="3">
-        <v>5811000</v>
+        <v>8544500</v>
       </c>
       <c r="I46" s="3">
-        <v>6075700</v>
+        <v>5755900</v>
       </c>
       <c r="J46" s="3">
+        <v>6018100</v>
+      </c>
+      <c r="K46" s="3">
         <v>5821500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>5878200</v>
       </c>
     </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>4145300</v>
+        <v>4606800</v>
       </c>
       <c r="E47" s="3">
-        <v>3763400</v>
+        <v>4106000</v>
       </c>
       <c r="F47" s="3">
-        <v>3498700</v>
+        <v>3727700</v>
       </c>
       <c r="G47" s="3">
-        <v>3303800</v>
+        <v>3465600</v>
       </c>
       <c r="H47" s="3">
-        <v>3185300</v>
+        <v>3272500</v>
       </c>
       <c r="I47" s="3">
-        <v>2898300</v>
+        <v>3155100</v>
       </c>
       <c r="J47" s="3">
+        <v>2870800</v>
+      </c>
+      <c r="K47" s="3">
         <v>2683600</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>2766600</v>
       </c>
     </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>13033600</v>
+        <v>12758800</v>
       </c>
       <c r="E48" s="3">
-        <v>13100700</v>
+        <v>12910100</v>
       </c>
       <c r="F48" s="3">
-        <v>13175800</v>
+        <v>12976600</v>
       </c>
       <c r="G48" s="3">
-        <v>13215300</v>
+        <v>13050900</v>
       </c>
       <c r="H48" s="3">
-        <v>12857100</v>
+        <v>13090100</v>
       </c>
       <c r="I48" s="3">
-        <v>12844000</v>
+        <v>12735300</v>
       </c>
       <c r="J48" s="3">
+        <v>12722200</v>
+      </c>
+      <c r="K48" s="3">
         <v>12704400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>12620100</v>
       </c>
     </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1411600</v>
+        <v>1372100</v>
       </c>
       <c r="E49" s="3">
-        <v>1096900</v>
+        <v>1398200</v>
       </c>
       <c r="F49" s="3">
-        <v>1057400</v>
+        <v>1086500</v>
       </c>
       <c r="G49" s="3">
-        <v>1046800</v>
+        <v>1047400</v>
       </c>
       <c r="H49" s="3">
-        <v>433200</v>
+        <v>1036900</v>
       </c>
       <c r="I49" s="3">
-        <v>453000</v>
+        <v>429100</v>
       </c>
       <c r="J49" s="3">
+        <v>448700</v>
+      </c>
+      <c r="K49" s="3">
         <v>428000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>399000</v>
       </c>
     </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1825,8 +1974,11 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1854,37 +2006,43 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>34200</v>
+        <v>380900</v>
       </c>
       <c r="E52" s="3">
-        <v>11900</v>
+        <v>33900</v>
       </c>
       <c r="F52" s="3">
-        <v>26300</v>
+        <v>11700</v>
       </c>
       <c r="G52" s="3">
-        <v>61900</v>
+        <v>26100</v>
       </c>
       <c r="H52" s="3">
-        <v>63200</v>
+        <v>61300</v>
       </c>
       <c r="I52" s="3">
-        <v>72400</v>
+        <v>62600</v>
       </c>
       <c r="J52" s="3">
+        <v>71700</v>
+      </c>
+      <c r="K52" s="3">
         <v>138300</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>51400</v>
       </c>
     </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1912,37 +2070,43 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>28970700</v>
+        <v>29400500</v>
       </c>
       <c r="E54" s="3">
-        <v>27229900</v>
+        <v>28696100</v>
       </c>
       <c r="F54" s="3">
-        <v>26069800</v>
+        <v>26971800</v>
       </c>
       <c r="G54" s="3">
-        <v>26254200</v>
+        <v>25822700</v>
       </c>
       <c r="H54" s="3">
-        <v>22349900</v>
+        <v>26005300</v>
       </c>
       <c r="I54" s="3">
-        <v>22343300</v>
+        <v>22138100</v>
       </c>
       <c r="J54" s="3">
+        <v>22131500</v>
+      </c>
+      <c r="K54" s="3">
         <v>21775800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>21715200</v>
       </c>
     </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1954,8 +2118,9 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+    </row>
+    <row r="56" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1967,182 +2132,201 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+    </row>
+    <row r="57" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>12065700</v>
+        <v>13251800</v>
       </c>
       <c r="E57" s="3">
-        <v>11834000</v>
+        <v>11951400</v>
       </c>
       <c r="F57" s="3">
-        <v>10567200</v>
+        <v>11721800</v>
       </c>
       <c r="G57" s="3">
-        <v>10572500</v>
+        <v>10467100</v>
       </c>
       <c r="H57" s="3">
-        <v>8229900</v>
+        <v>10472300</v>
       </c>
       <c r="I57" s="3">
-        <v>8607900</v>
+        <v>8151900</v>
       </c>
       <c r="J57" s="3">
+        <v>8526300</v>
+      </c>
+      <c r="K57" s="3">
         <v>8369500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>8190400</v>
       </c>
     </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>840100</v>
+        <v>332600</v>
       </c>
       <c r="E58" s="3">
-        <v>916500</v>
+        <v>832100</v>
       </c>
       <c r="F58" s="3">
-        <v>453000</v>
+        <v>907800</v>
       </c>
       <c r="G58" s="3">
-        <v>597800</v>
+        <v>448700</v>
       </c>
       <c r="H58" s="3">
-        <v>293600</v>
+        <v>592200</v>
       </c>
       <c r="I58" s="3">
-        <v>233100</v>
+        <v>290900</v>
       </c>
       <c r="J58" s="3">
+        <v>230900</v>
+      </c>
+      <c r="K58" s="3">
         <v>342400</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>492500</v>
       </c>
     </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>659700</v>
+        <v>341700</v>
       </c>
       <c r="E59" s="3">
-        <v>445100</v>
+        <v>653500</v>
       </c>
       <c r="F59" s="3">
-        <v>512200</v>
+        <v>440900</v>
       </c>
       <c r="G59" s="3">
-        <v>396400</v>
+        <v>507400</v>
       </c>
       <c r="H59" s="3">
-        <v>325200</v>
+        <v>392600</v>
       </c>
       <c r="I59" s="3">
-        <v>280500</v>
+        <v>322200</v>
       </c>
       <c r="J59" s="3">
+        <v>277800</v>
+      </c>
+      <c r="K59" s="3">
         <v>404300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>358200</v>
       </c>
     </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>13565600</v>
+        <v>13926100</v>
       </c>
       <c r="E60" s="3">
-        <v>13195600</v>
+        <v>13437000</v>
       </c>
       <c r="F60" s="3">
-        <v>11306000</v>
+        <v>13070500</v>
       </c>
       <c r="G60" s="3">
-        <v>11267800</v>
+        <v>11198800</v>
       </c>
       <c r="H60" s="3">
-        <v>8848800</v>
+        <v>11161000</v>
       </c>
       <c r="I60" s="3">
-        <v>9121400</v>
+        <v>8765000</v>
       </c>
       <c r="J60" s="3">
+        <v>9035000</v>
+      </c>
+      <c r="K60" s="3">
         <v>9116100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>9041100</v>
       </c>
     </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>2109500</v>
+        <v>1810400</v>
       </c>
       <c r="E61" s="3">
-        <v>1900100</v>
+        <v>2089500</v>
       </c>
       <c r="F61" s="3">
-        <v>2684900</v>
+        <v>1882100</v>
       </c>
       <c r="G61" s="3">
-        <v>2782400</v>
+        <v>2659500</v>
       </c>
       <c r="H61" s="3">
-        <v>2883800</v>
+        <v>2756000</v>
       </c>
       <c r="I61" s="3">
-        <v>3047100</v>
+        <v>2856400</v>
       </c>
       <c r="J61" s="3">
+        <v>3018200</v>
+      </c>
+      <c r="K61" s="3">
         <v>3299900</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>3443400</v>
       </c>
     </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>3536900</v>
+        <v>3443400</v>
       </c>
       <c r="E62" s="3">
-        <v>2999600</v>
+        <v>3503400</v>
       </c>
       <c r="F62" s="3">
-        <v>3029900</v>
+        <v>2971200</v>
       </c>
       <c r="G62" s="3">
-        <v>3652800</v>
+        <v>3001200</v>
       </c>
       <c r="H62" s="3">
-        <v>2235900</v>
+        <v>3618200</v>
       </c>
       <c r="I62" s="3">
-        <v>1996300</v>
+        <v>2214700</v>
       </c>
       <c r="J62" s="3">
+        <v>1977300</v>
+      </c>
+      <c r="K62" s="3">
         <v>2066000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1966000</v>
       </c>
     </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2170,8 +2354,11 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2199,8 +2386,11 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2228,37 +2418,43 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>19212000</v>
+        <v>19179900</v>
       </c>
       <c r="E66" s="3">
-        <v>18095300</v>
+        <v>19029900</v>
       </c>
       <c r="F66" s="3">
-        <v>17020800</v>
+        <v>17923800</v>
       </c>
       <c r="G66" s="3">
-        <v>17702900</v>
+        <v>16859500</v>
       </c>
       <c r="H66" s="3">
-        <v>13968500</v>
+        <v>17535100</v>
       </c>
       <c r="I66" s="3">
-        <v>14164700</v>
+        <v>13836100</v>
       </c>
       <c r="J66" s="3">
+        <v>14030500</v>
+      </c>
+      <c r="K66" s="3">
         <v>14482100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>14450500</v>
       </c>
     </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2270,8 +2466,9 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2299,8 +2496,11 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2328,8 +2528,11 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2357,8 +2560,11 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2386,37 +2592,43 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>6792000</v>
+        <v>7266300</v>
       </c>
       <c r="E72" s="3">
-        <v>6178400</v>
+        <v>6727600</v>
       </c>
       <c r="F72" s="3">
-        <v>6098100</v>
+        <v>6119800</v>
       </c>
       <c r="G72" s="3">
-        <v>5602900</v>
+        <v>6040300</v>
       </c>
       <c r="H72" s="3">
-        <v>5537100</v>
+        <v>5549800</v>
       </c>
       <c r="I72" s="3">
-        <v>5335600</v>
+        <v>5484600</v>
       </c>
       <c r="J72" s="3">
+        <v>5285100</v>
+      </c>
+      <c r="K72" s="3">
         <v>5113100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>5098600</v>
       </c>
     </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2444,8 +2656,11 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2473,8 +2688,11 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2502,37 +2720,43 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>9758700</v>
+        <v>10220600</v>
       </c>
       <c r="E76" s="3">
-        <v>9134600</v>
+        <v>9666200</v>
       </c>
       <c r="F76" s="3">
-        <v>9049000</v>
+        <v>9048000</v>
       </c>
       <c r="G76" s="3">
-        <v>8551200</v>
+        <v>8963200</v>
       </c>
       <c r="H76" s="3">
-        <v>8381400</v>
+        <v>8470200</v>
       </c>
       <c r="I76" s="3">
-        <v>8178600</v>
+        <v>8301900</v>
       </c>
       <c r="J76" s="3">
+        <v>8101100</v>
+      </c>
+      <c r="K76" s="3">
         <v>7293700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>7264700</v>
       </c>
     </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2560,71 +2784,80 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43365</v>
+      </c>
+      <c r="E80" s="2">
         <v>43169</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43001</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>42805</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>42637</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42441</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42273</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42077</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>41909</v>
       </c>
     </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>177800</v>
+        <v>174800</v>
       </c>
       <c r="E81" s="3">
-        <v>205400</v>
+        <v>176100</v>
       </c>
       <c r="F81" s="3">
-        <v>92200</v>
+        <v>203500</v>
       </c>
       <c r="G81" s="3">
-        <v>380600</v>
+        <v>91300</v>
       </c>
       <c r="H81" s="3">
-        <v>259400</v>
+        <v>376900</v>
       </c>
       <c r="I81" s="3">
-        <v>345000</v>
+        <v>256900</v>
       </c>
       <c r="J81" s="3">
+        <v>341700</v>
+      </c>
+      <c r="K81" s="3">
         <v>234400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-453000</v>
       </c>
     </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2636,37 +2869,41 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+    </row>
+    <row r="83" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>485900</v>
+        <v>559500</v>
       </c>
       <c r="E83" s="3">
-        <v>476700</v>
+        <v>481300</v>
       </c>
       <c r="F83" s="3">
-        <v>396400</v>
+        <v>472200</v>
       </c>
       <c r="G83" s="3">
-        <v>430600</v>
+        <v>392600</v>
       </c>
       <c r="H83" s="3">
-        <v>363400</v>
+        <v>426500</v>
       </c>
       <c r="I83" s="3">
-        <v>405600</v>
+        <v>360000</v>
       </c>
       <c r="J83" s="3">
+        <v>401700</v>
+      </c>
+      <c r="K83" s="3">
         <v>343700</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>418700</v>
       </c>
     </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2694,8 +2931,11 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2723,8 +2963,11 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2752,8 +2995,11 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2781,8 +3027,11 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2810,37 +3059,43 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>755800</v>
+        <v>952100</v>
       </c>
       <c r="E89" s="3">
-        <v>1041600</v>
+        <v>748700</v>
       </c>
       <c r="F89" s="3">
-        <v>535900</v>
+        <v>1031700</v>
       </c>
       <c r="G89" s="3">
-        <v>982300</v>
+        <v>530900</v>
       </c>
       <c r="H89" s="3">
-        <v>190900</v>
+        <v>973000</v>
       </c>
       <c r="I89" s="3">
-        <v>325200</v>
+        <v>189100</v>
       </c>
       <c r="J89" s="3">
+        <v>322200</v>
+      </c>
+      <c r="K89" s="3">
         <v>675500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>524100</v>
       </c>
     </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2852,37 +3107,41 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+    </row>
+    <row r="91" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-478000</v>
+        <v>-309100</v>
       </c>
       <c r="E91" s="3">
-        <v>-445100</v>
+        <v>-363900</v>
       </c>
       <c r="F91" s="3">
-        <v>-513500</v>
+        <v>-367800</v>
       </c>
       <c r="G91" s="3">
-        <v>-466100</v>
+        <v>-426500</v>
       </c>
       <c r="H91" s="3">
-        <v>-381900</v>
+        <v>-400400</v>
       </c>
       <c r="I91" s="3">
-        <v>-513500</v>
+        <v>-373000</v>
       </c>
       <c r="J91" s="3">
+        <v>-469600</v>
+      </c>
+      <c r="K91" s="3">
         <v>-583300</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-771600</v>
       </c>
     </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2910,8 +3169,11 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2939,37 +3201,43 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-252800</v>
+        <v>-323500</v>
       </c>
       <c r="E94" s="3">
-        <v>-366100</v>
+        <v>-250400</v>
       </c>
       <c r="F94" s="3">
-        <v>-393700</v>
+        <v>-362600</v>
       </c>
       <c r="G94" s="3">
-        <v>-593900</v>
+        <v>-390000</v>
       </c>
       <c r="H94" s="3">
-        <v>-114600</v>
+        <v>-588200</v>
       </c>
       <c r="I94" s="3">
-        <v>-412200</v>
+        <v>-113500</v>
       </c>
       <c r="J94" s="3">
+        <v>-408200</v>
+      </c>
+      <c r="K94" s="3">
         <v>-454300</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-730800</v>
       </c>
     </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2981,37 +3249,41 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+    </row>
+    <row r="96" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-4000</v>
+        <v>-26100</v>
       </c>
       <c r="E96" s="3">
-        <v>-26300</v>
+        <v>-3900</v>
       </c>
       <c r="F96" s="3">
-        <v>-4000</v>
+        <v>-26100</v>
       </c>
       <c r="G96" s="3">
-        <v>-26300</v>
+        <v>-3900</v>
       </c>
       <c r="H96" s="3">
-        <v>201500</v>
+        <v>-26100</v>
       </c>
       <c r="I96" s="3">
-        <v>-206700</v>
+        <v>199600</v>
       </c>
       <c r="J96" s="3">
+        <v>-204800</v>
+      </c>
+      <c r="K96" s="3">
         <v>-126400</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-308100</v>
       </c>
     </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3039,8 +3311,11 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3068,8 +3343,11 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3097,37 +3375,43 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>18400</v>
+        <v>-975600</v>
       </c>
       <c r="E100" s="3">
-        <v>-339700</v>
+        <v>18300</v>
       </c>
       <c r="F100" s="3">
-        <v>-280500</v>
+        <v>-336500</v>
       </c>
       <c r="G100" s="3">
-        <v>-333100</v>
+        <v>-277800</v>
       </c>
       <c r="H100" s="3">
-        <v>-235700</v>
+        <v>-330000</v>
       </c>
       <c r="I100" s="3">
-        <v>67200</v>
+        <v>-233500</v>
       </c>
       <c r="J100" s="3">
+        <v>66500</v>
+      </c>
+      <c r="K100" s="3">
         <v>-385800</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-27700</v>
       </c>
     </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3155,33 +3439,39 @@
       <c r="K101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>521400</v>
+        <v>-346900</v>
       </c>
       <c r="E102" s="3">
-        <v>335800</v>
+        <v>516500</v>
       </c>
       <c r="F102" s="3">
-        <v>-138300</v>
+        <v>332600</v>
       </c>
       <c r="G102" s="3">
-        <v>55300</v>
+        <v>-137000</v>
       </c>
       <c r="H102" s="3">
-        <v>-159300</v>
+        <v>54800</v>
       </c>
       <c r="I102" s="3">
-        <v>-19800</v>
+        <v>-157800</v>
       </c>
       <c r="J102" s="3">
+        <v>-19600</v>
+      </c>
+      <c r="K102" s="3">
         <v>-164600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-234400</v>
       </c>
     </row>

--- a/Financials/Quarterly/JSAIY_QTR_FIN.xlsx
+++ b/Financials/Quarterly/JSAIY_QTR_FIN.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61FA9A01-E963-4314-9A94-B5519881977A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9348" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9345"/>
   </bookViews>
   <sheets>
     <sheet name="JSAIY" sheetId="6" r:id="rId1"/>
@@ -23,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="92">
   <si>
     <t>JSAIY</t>
   </si>
@@ -304,7 +303,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
@@ -445,23 +444,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -497,23 +479,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -689,168 +654,194 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="69.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.109375" style="1"/>
+    <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43729</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43533</v>
+      </c>
+      <c r="F7" s="2">
         <v>43365</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43169</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43001</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>42805</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>42637</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>42441</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>42273</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>42077</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>41909</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>19730300</v>
+        <v>19517600</v>
       </c>
       <c r="E8" s="3">
-        <v>18015100</v>
+        <v>17944200</v>
       </c>
       <c r="F8" s="3">
-        <v>19100300</v>
+        <v>19556300</v>
       </c>
       <c r="G8" s="3">
-        <v>17715100</v>
+        <v>17856300</v>
       </c>
       <c r="H8" s="3">
-        <v>16489100</v>
+        <v>18931900</v>
       </c>
       <c r="I8" s="3">
+        <v>17558900</v>
+      </c>
+      <c r="J8" s="3">
+        <v>16343700</v>
+      </c>
+      <c r="K8" s="3">
         <v>14460900</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>16198200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>14626900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>16679800</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>18390800</v>
+        <v>18289400</v>
       </c>
       <c r="E9" s="3">
-        <v>16846500</v>
+        <v>16502700</v>
       </c>
       <c r="F9" s="3">
-        <v>17814300</v>
+        <v>18039900</v>
       </c>
       <c r="G9" s="3">
-        <v>16581700</v>
+        <v>16697900</v>
       </c>
       <c r="H9" s="3">
-        <v>15491300</v>
+        <v>17657200</v>
       </c>
       <c r="I9" s="3">
+        <v>16435500</v>
+      </c>
+      <c r="J9" s="3">
+        <v>15354700</v>
+      </c>
+      <c r="K9" s="3">
         <v>13549200</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>15210900</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>13693300</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>16022700</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>1339500</v>
+        <v>1228200</v>
       </c>
       <c r="E10" s="3">
-        <v>1168700</v>
+        <v>1441500</v>
       </c>
       <c r="F10" s="3">
-        <v>1286000</v>
+        <v>1516500</v>
       </c>
       <c r="G10" s="3">
-        <v>1133400</v>
+        <v>1158400</v>
       </c>
       <c r="H10" s="3">
-        <v>997800</v>
+        <v>1274700</v>
       </c>
       <c r="I10" s="3">
+        <v>1123500</v>
+      </c>
+      <c r="J10" s="3">
+        <v>989000</v>
+      </c>
+      <c r="K10" s="3">
         <v>911700</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>987400</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>933600</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>657100</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -863,8 +854,10 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -895,8 +888,14 @@
       <c r="L12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -927,31 +926,37 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
-        <v>0</v>
+      <c r="D14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3">
-        <v>0</v>
+        <v>11600</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K14" s="3">
         <v>0</v>
@@ -959,8 +964,14 @@
       <c r="L14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -991,8 +1002,14 @@
       <c r="L15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M15" s="3">
+        <v>0</v>
+      </c>
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1002,72 +1019,86 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M16" s="3"/>
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>19532000</v>
+        <v>19209900</v>
       </c>
       <c r="E17" s="3">
-        <v>17708600</v>
+        <v>17570600</v>
       </c>
       <c r="F17" s="3">
-        <v>18731200</v>
+        <v>19164600</v>
       </c>
       <c r="G17" s="3">
-        <v>17473800</v>
+        <v>17552500</v>
       </c>
       <c r="H17" s="3">
-        <v>15893000</v>
+        <v>18566000</v>
       </c>
       <c r="I17" s="3">
+        <v>17319800</v>
+      </c>
+      <c r="J17" s="3">
+        <v>15752900</v>
+      </c>
+      <c r="K17" s="3">
         <v>14090500</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>15646500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>14212100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>16987900</v>
       </c>
     </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>198300</v>
+        <v>307700</v>
       </c>
       <c r="E18" s="3">
-        <v>306500</v>
+        <v>373600</v>
       </c>
       <c r="F18" s="3">
-        <v>369100</v>
+        <v>391700</v>
       </c>
       <c r="G18" s="3">
-        <v>241300</v>
+        <v>303800</v>
       </c>
       <c r="H18" s="3">
-        <v>596100</v>
+        <v>365900</v>
       </c>
       <c r="I18" s="3">
+        <v>239200</v>
+      </c>
+      <c r="J18" s="3">
+        <v>590800</v>
+      </c>
+      <c r="K18" s="3">
         <v>370400</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>551700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>414800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-308100</v>
       </c>
     </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1080,168 +1111,200 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M19" s="3"/>
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>28700</v>
+        <v>-20700</v>
       </c>
       <c r="E20" s="3">
+        <v>-3900</v>
+      </c>
+      <c r="F20" s="3">
+        <v>38800</v>
+      </c>
+      <c r="G20" s="3">
         <v>7800</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>-7800</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>-2600</v>
       </c>
-      <c r="H20" s="3">
-        <v>-30000</v>
-      </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
+        <v>-29700</v>
+      </c>
+      <c r="K20" s="3">
         <v>-24800</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>-26100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>-48700</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>9200</v>
       </c>
     </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>786500</v>
+        <v>1149300</v>
       </c>
       <c r="E21" s="3">
-        <v>795600</v>
+        <v>1120900</v>
       </c>
       <c r="F21" s="3">
-        <v>833500</v>
+        <v>1310900</v>
       </c>
       <c r="G21" s="3">
-        <v>631300</v>
+        <v>788600</v>
       </c>
       <c r="H21" s="3">
-        <v>992600</v>
+        <v>826100</v>
       </c>
       <c r="I21" s="3">
+        <v>625700</v>
+      </c>
+      <c r="J21" s="3">
+        <v>983800</v>
+      </c>
+      <c r="K21" s="3">
         <v>705600</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>927400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>709700</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>119800</v>
       </c>
     </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>54800</v>
+        <v>275400</v>
       </c>
       <c r="E22" s="3">
-        <v>67800</v>
+        <v>246900</v>
       </c>
       <c r="F22" s="3">
-        <v>74300</v>
+        <v>292200</v>
       </c>
       <c r="G22" s="3">
-        <v>67800</v>
+        <v>67200</v>
       </c>
       <c r="H22" s="3">
-        <v>80900</v>
+        <v>73700</v>
       </c>
       <c r="I22" s="3">
+        <v>67200</v>
+      </c>
+      <c r="J22" s="3">
+        <v>80200</v>
+      </c>
+      <c r="K22" s="3">
         <v>73000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="L22" s="3">
         <v>83500</v>
       </c>
-      <c r="K22" s="3">
+      <c r="M22" s="3">
         <v>79000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="N22" s="3">
         <v>83000</v>
       </c>
     </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>172200</v>
+        <v>11600</v>
       </c>
       <c r="E23" s="3">
-        <v>246500</v>
+        <v>122800</v>
       </c>
       <c r="F23" s="3">
-        <v>286900</v>
+        <v>138300</v>
       </c>
       <c r="G23" s="3">
-        <v>170900</v>
+        <v>244300</v>
       </c>
       <c r="H23" s="3">
-        <v>485200</v>
+        <v>284400</v>
       </c>
       <c r="I23" s="3">
+        <v>169400</v>
+      </c>
+      <c r="J23" s="3">
+        <v>480900</v>
+      </c>
+      <c r="K23" s="3">
         <v>272600</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>442200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>287100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-381900</v>
       </c>
     </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-15700</v>
+        <v>60800</v>
       </c>
       <c r="E24" s="3">
-        <v>60000</v>
+        <v>41400</v>
       </c>
       <c r="F24" s="3">
-        <v>70400</v>
+        <v>-20700</v>
       </c>
       <c r="G24" s="3">
-        <v>69100</v>
+        <v>59500</v>
       </c>
       <c r="H24" s="3">
-        <v>95200</v>
+        <v>69800</v>
       </c>
       <c r="I24" s="3">
+        <v>68500</v>
+      </c>
+      <c r="J24" s="3">
+        <v>94400</v>
+      </c>
+      <c r="K24" s="3">
         <v>2600</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>97800</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>52700</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>71100</v>
       </c>
     </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1272,72 +1335,90 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>187800</v>
+        <v>-49100</v>
       </c>
       <c r="E26" s="3">
-        <v>186500</v>
+        <v>81400</v>
       </c>
       <c r="F26" s="3">
-        <v>216500</v>
+        <v>159000</v>
       </c>
       <c r="G26" s="3">
-        <v>101700</v>
+        <v>184900</v>
       </c>
       <c r="H26" s="3">
-        <v>390000</v>
+        <v>214600</v>
       </c>
       <c r="I26" s="3">
+        <v>100800</v>
+      </c>
+      <c r="J26" s="3">
+        <v>386600</v>
+      </c>
+      <c r="K26" s="3">
         <v>270000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>344300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>234400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-453000</v>
       </c>
     </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>174800</v>
+        <v>-63300</v>
       </c>
       <c r="E27" s="3">
-        <v>176100</v>
+        <v>71100</v>
       </c>
       <c r="F27" s="3">
-        <v>203500</v>
+        <v>146100</v>
       </c>
       <c r="G27" s="3">
-        <v>91300</v>
+        <v>174500</v>
       </c>
       <c r="H27" s="3">
-        <v>376900</v>
+        <v>201700</v>
       </c>
       <c r="I27" s="3">
+        <v>90500</v>
+      </c>
+      <c r="J27" s="3">
+        <v>373600</v>
+      </c>
+      <c r="K27" s="3">
         <v>256900</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>341700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>234400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-453000</v>
       </c>
     </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1368,8 +1449,14 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1400,8 +1487,14 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1432,8 +1525,14 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1464,72 +1563,90 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-28700</v>
+        <v>20700</v>
       </c>
       <c r="E32" s="3">
+        <v>3900</v>
+      </c>
+      <c r="F32" s="3">
+        <v>-38800</v>
+      </c>
+      <c r="G32" s="3">
         <v>-7800</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>7800</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>2600</v>
       </c>
-      <c r="H32" s="3">
-        <v>30000</v>
-      </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
+        <v>29700</v>
+      </c>
+      <c r="K32" s="3">
         <v>24800</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>26100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>48700</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>-9200</v>
       </c>
     </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>174800</v>
+        <v>-63300</v>
       </c>
       <c r="E33" s="3">
-        <v>176100</v>
+        <v>71100</v>
       </c>
       <c r="F33" s="3">
-        <v>203500</v>
+        <v>146100</v>
       </c>
       <c r="G33" s="3">
-        <v>91300</v>
+        <v>174500</v>
       </c>
       <c r="H33" s="3">
-        <v>376900</v>
+        <v>201700</v>
       </c>
       <c r="I33" s="3">
+        <v>90500</v>
+      </c>
+      <c r="J33" s="3">
+        <v>373600</v>
+      </c>
+      <c r="K33" s="3">
         <v>256900</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>341700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>234400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-453000</v>
       </c>
     </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1560,77 +1677,95 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>174800</v>
+        <v>-63300</v>
       </c>
       <c r="E35" s="3">
-        <v>176100</v>
+        <v>71100</v>
       </c>
       <c r="F35" s="3">
-        <v>203500</v>
+        <v>146100</v>
       </c>
       <c r="G35" s="3">
-        <v>91300</v>
+        <v>174500</v>
       </c>
       <c r="H35" s="3">
-        <v>376900</v>
+        <v>201700</v>
       </c>
       <c r="I35" s="3">
+        <v>90500</v>
+      </c>
+      <c r="J35" s="3">
+        <v>373600</v>
+      </c>
+      <c r="K35" s="3">
         <v>256900</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>341700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>234400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-453000</v>
       </c>
     </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43729</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43533</v>
+      </c>
+      <c r="F38" s="2">
         <v>43365</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43169</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43001</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>42805</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>42637</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>42441</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>42273</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>42077</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>41909</v>
       </c>
     </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1643,8 +1778,10 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M39" s="3"/>
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1657,296 +1794,352 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M40" s="3"/>
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1171300</v>
+        <v>1429800</v>
       </c>
       <c r="E41" s="3">
-        <v>1365600</v>
+        <v>1051100</v>
       </c>
       <c r="F41" s="3">
-        <v>1421700</v>
+        <v>1160900</v>
       </c>
       <c r="G41" s="3">
-        <v>1098200</v>
+        <v>1353600</v>
       </c>
       <c r="H41" s="3">
-        <v>1395600</v>
+        <v>1409200</v>
       </c>
       <c r="I41" s="3">
+        <v>1088500</v>
+      </c>
+      <c r="J41" s="3">
+        <v>1383300</v>
+      </c>
+      <c r="K41" s="3">
         <v>1113900</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>1494700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>1692100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>1865900</v>
       </c>
     </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>1197400</v>
+        <v>703300</v>
       </c>
       <c r="E42" s="3">
-        <v>1155600</v>
+        <v>671000</v>
       </c>
       <c r="F42" s="3">
-        <v>494300</v>
+        <v>1186800</v>
       </c>
       <c r="G42" s="3">
-        <v>444800</v>
+        <v>1145400</v>
       </c>
       <c r="H42" s="3">
-        <v>311700</v>
+        <v>490000</v>
       </c>
       <c r="I42" s="3">
+        <v>440800</v>
+      </c>
+      <c r="J42" s="3">
+        <v>309000</v>
+      </c>
+      <c r="K42" s="3">
         <v>439600</v>
       </c>
-      <c r="J42" s="3">
+      <c r="L42" s="3">
         <v>156500</v>
       </c>
-      <c r="K42" s="3" t="s">
+      <c r="M42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L42" s="3" t="s">
+      <c r="N42" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>5401100</v>
+        <v>5818900</v>
       </c>
       <c r="E43" s="3">
-        <v>5352900</v>
+        <v>5517700</v>
       </c>
       <c r="F43" s="3">
-        <v>4715100</v>
+        <v>5345800</v>
       </c>
       <c r="G43" s="3">
-        <v>4252100</v>
+        <v>5305700</v>
       </c>
       <c r="H43" s="3">
-        <v>4177700</v>
+        <v>4673500</v>
       </c>
       <c r="I43" s="3">
+        <v>4214600</v>
+      </c>
+      <c r="J43" s="3">
+        <v>4140900</v>
+      </c>
+      <c r="K43" s="3">
         <v>2873400</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>2986900</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>2725800</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>2561200</v>
       </c>
     </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>2450800</v>
+        <v>2524900</v>
       </c>
       <c r="E44" s="3">
-        <v>2360800</v>
+        <v>2493800</v>
       </c>
       <c r="F44" s="3">
-        <v>2514700</v>
+        <v>2429200</v>
       </c>
       <c r="G44" s="3">
-        <v>2315200</v>
+        <v>2340000</v>
       </c>
       <c r="H44" s="3">
-        <v>2482100</v>
+        <v>2492500</v>
       </c>
       <c r="I44" s="3">
+        <v>2294700</v>
+      </c>
+      <c r="J44" s="3">
+        <v>2460200</v>
+      </c>
+      <c r="K44" s="3">
         <v>1262600</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>1321300</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>1312800</v>
       </c>
-      <c r="L44" s="3">
+      <c r="N44" s="3">
         <v>1389200</v>
       </c>
     </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>61300</v>
+        <v>53000</v>
       </c>
       <c r="E45" s="3">
-        <v>13000</v>
+        <v>27100</v>
       </c>
       <c r="F45" s="3">
-        <v>23500</v>
+        <v>60800</v>
       </c>
       <c r="G45" s="3">
-        <v>122600</v>
+        <v>12900</v>
       </c>
       <c r="H45" s="3">
-        <v>177400</v>
+        <v>23300</v>
       </c>
       <c r="I45" s="3">
+        <v>121500</v>
+      </c>
+      <c r="J45" s="3">
+        <v>175800</v>
+      </c>
+      <c r="K45" s="3">
         <v>66500</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>58700</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>90900</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>61900</v>
       </c>
     </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>10281900</v>
+        <v>10529900</v>
       </c>
       <c r="E46" s="3">
-        <v>10248000</v>
+        <v>9760700</v>
       </c>
       <c r="F46" s="3">
-        <v>9169300</v>
+        <v>10183500</v>
       </c>
       <c r="G46" s="3">
-        <v>8232800</v>
+        <v>10157600</v>
       </c>
       <c r="H46" s="3">
-        <v>8544500</v>
+        <v>9088500</v>
       </c>
       <c r="I46" s="3">
+        <v>8160200</v>
+      </c>
+      <c r="J46" s="3">
+        <v>8469200</v>
+      </c>
+      <c r="K46" s="3">
         <v>5755900</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>6018100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>5821500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>5878200</v>
       </c>
     </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>4606800</v>
+        <v>5865500</v>
       </c>
       <c r="E47" s="3">
-        <v>4106000</v>
+        <v>5502200</v>
       </c>
       <c r="F47" s="3">
-        <v>3727700</v>
+        <v>4602400</v>
       </c>
       <c r="G47" s="3">
-        <v>3465600</v>
+        <v>4069800</v>
       </c>
       <c r="H47" s="3">
-        <v>3272500</v>
+        <v>3694900</v>
       </c>
       <c r="I47" s="3">
+        <v>3435000</v>
+      </c>
+      <c r="J47" s="3">
+        <v>3243700</v>
+      </c>
+      <c r="K47" s="3">
         <v>3155100</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>2870800</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>2683600</v>
       </c>
-      <c r="L47" s="3">
+      <c r="N47" s="3">
         <v>2766600</v>
       </c>
     </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>12758800</v>
+        <v>17867900</v>
       </c>
       <c r="E48" s="3">
-        <v>12910100</v>
+        <v>18339800</v>
       </c>
       <c r="F48" s="3">
-        <v>12976600</v>
+        <v>18537600</v>
       </c>
       <c r="G48" s="3">
-        <v>13050900</v>
+        <v>12796200</v>
       </c>
       <c r="H48" s="3">
-        <v>13090100</v>
+        <v>12862200</v>
       </c>
       <c r="I48" s="3">
+        <v>12935900</v>
+      </c>
+      <c r="J48" s="3">
+        <v>12974600</v>
+      </c>
+      <c r="K48" s="3">
         <v>12735300</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>12722200</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>12704400</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>12620100</v>
       </c>
     </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1372100</v>
+        <v>1303200</v>
       </c>
       <c r="E49" s="3">
-        <v>1398200</v>
+        <v>1348400</v>
       </c>
       <c r="F49" s="3">
-        <v>1086500</v>
+        <v>1358700</v>
       </c>
       <c r="G49" s="3">
-        <v>1047400</v>
+        <v>1385900</v>
       </c>
       <c r="H49" s="3">
-        <v>1036900</v>
+        <v>1076900</v>
       </c>
       <c r="I49" s="3">
+        <v>1038100</v>
+      </c>
+      <c r="J49" s="3">
+        <v>1027800</v>
+      </c>
+      <c r="K49" s="3">
         <v>429100</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>448700</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>428000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>399000</v>
       </c>
     </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1977,8 +2170,14 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2009,40 +2208,52 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>380900</v>
+        <v>1803500</v>
       </c>
       <c r="E52" s="3">
-        <v>33900</v>
+        <v>1261800</v>
       </c>
       <c r="F52" s="3">
-        <v>11700</v>
+        <v>377500</v>
       </c>
       <c r="G52" s="3">
-        <v>26100</v>
+        <v>33600</v>
       </c>
       <c r="H52" s="3">
-        <v>61300</v>
+        <v>11600</v>
       </c>
       <c r="I52" s="3">
+        <v>25900</v>
+      </c>
+      <c r="J52" s="3">
+        <v>60800</v>
+      </c>
+      <c r="K52" s="3">
         <v>62600</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>71700</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>138300</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>51400</v>
       </c>
     </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2073,40 +2284,52 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>29400500</v>
+        <v>37370000</v>
       </c>
       <c r="E54" s="3">
-        <v>28696100</v>
+        <v>36212900</v>
       </c>
       <c r="F54" s="3">
-        <v>26971800</v>
+        <v>35059700</v>
       </c>
       <c r="G54" s="3">
-        <v>25822700</v>
+        <v>28443100</v>
       </c>
       <c r="H54" s="3">
-        <v>26005300</v>
+        <v>26734000</v>
       </c>
       <c r="I54" s="3">
+        <v>25595100</v>
+      </c>
+      <c r="J54" s="3">
+        <v>25776000</v>
+      </c>
+      <c r="K54" s="3">
         <v>22138100</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>22131500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>21775800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>21715200</v>
       </c>
     </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2119,8 +2342,10 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M55" s="3"/>
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2133,200 +2358,238 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M56" s="3"/>
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>13251800</v>
+        <v>6089100</v>
       </c>
       <c r="E57" s="3">
-        <v>11951400</v>
+        <v>5653500</v>
       </c>
       <c r="F57" s="3">
-        <v>11721800</v>
+        <v>6182200</v>
       </c>
       <c r="G57" s="3">
-        <v>10467100</v>
+        <v>5587500</v>
       </c>
       <c r="H57" s="3">
-        <v>10472300</v>
+        <v>5409100</v>
       </c>
       <c r="I57" s="3">
+        <v>4836400</v>
+      </c>
+      <c r="J57" s="3">
+        <v>5511200</v>
+      </c>
+      <c r="K57" s="3">
         <v>8151900</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>8526300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>8369500</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>8190400</v>
       </c>
     </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>332600</v>
+        <v>1332900</v>
       </c>
       <c r="E58" s="3">
-        <v>832100</v>
+        <v>1744000</v>
       </c>
       <c r="F58" s="3">
-        <v>907800</v>
+        <v>989000</v>
       </c>
       <c r="G58" s="3">
-        <v>448700</v>
+        <v>824800</v>
       </c>
       <c r="H58" s="3">
-        <v>592200</v>
+        <v>899800</v>
       </c>
       <c r="I58" s="3">
+        <v>444700</v>
+      </c>
+      <c r="J58" s="3">
+        <v>586900</v>
+      </c>
+      <c r="K58" s="3">
         <v>290900</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>230900</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>342400</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>492500</v>
       </c>
     </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>341700</v>
+        <v>8916500</v>
       </c>
       <c r="E59" s="3">
-        <v>653500</v>
+        <v>7921000</v>
       </c>
       <c r="F59" s="3">
-        <v>440900</v>
+        <v>7208700</v>
       </c>
       <c r="G59" s="3">
-        <v>507400</v>
+        <v>6906200</v>
       </c>
       <c r="H59" s="3">
-        <v>392600</v>
+        <v>6646300</v>
       </c>
       <c r="I59" s="3">
+        <v>6041300</v>
+      </c>
+      <c r="J59" s="3">
+        <v>5257900</v>
+      </c>
+      <c r="K59" s="3">
         <v>322200</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>277800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>404300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>358200</v>
       </c>
     </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>13926100</v>
+        <v>16338500</v>
       </c>
       <c r="E60" s="3">
-        <v>13437000</v>
+        <v>15318500</v>
       </c>
       <c r="F60" s="3">
-        <v>13070500</v>
+        <v>14379900</v>
       </c>
       <c r="G60" s="3">
-        <v>11198800</v>
+        <v>13318500</v>
       </c>
       <c r="H60" s="3">
-        <v>11161000</v>
+        <v>12955200</v>
       </c>
       <c r="I60" s="3">
+        <v>11100100</v>
+      </c>
+      <c r="J60" s="3">
+        <v>11062600</v>
+      </c>
+      <c r="K60" s="3">
         <v>8765000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>9035000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>9116100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>9041100</v>
       </c>
     </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1810400</v>
+        <v>8096900</v>
       </c>
       <c r="E61" s="3">
-        <v>2089500</v>
+        <v>7940400</v>
       </c>
       <c r="F61" s="3">
-        <v>1882100</v>
+        <v>8598500</v>
       </c>
       <c r="G61" s="3">
-        <v>2659500</v>
+        <v>2071100</v>
       </c>
       <c r="H61" s="3">
-        <v>2756000</v>
+        <v>1865500</v>
       </c>
       <c r="I61" s="3">
+        <v>2636000</v>
+      </c>
+      <c r="J61" s="3">
+        <v>2731700</v>
+      </c>
+      <c r="K61" s="3">
         <v>2856400</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>3018200</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>3299900</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>3443400</v>
       </c>
     </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>3443400</v>
+        <v>2713600</v>
       </c>
       <c r="E62" s="3">
-        <v>3503400</v>
+        <v>2893300</v>
       </c>
       <c r="F62" s="3">
-        <v>2971200</v>
+        <v>2806700</v>
       </c>
       <c r="G62" s="3">
-        <v>3001200</v>
+        <v>3472500</v>
       </c>
       <c r="H62" s="3">
-        <v>3618200</v>
+        <v>2945000</v>
       </c>
       <c r="I62" s="3">
+        <v>2974800</v>
+      </c>
+      <c r="J62" s="3">
+        <v>3586300</v>
+      </c>
+      <c r="K62" s="3">
         <v>2214700</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>1977300</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>2066000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>1966000</v>
       </c>
     </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2357,8 +2620,14 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2389,8 +2658,14 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2421,40 +2696,52 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>19179900</v>
+        <v>27149000</v>
       </c>
       <c r="E66" s="3">
-        <v>19029900</v>
+        <v>26152300</v>
       </c>
       <c r="F66" s="3">
-        <v>17923800</v>
+        <v>25785100</v>
       </c>
       <c r="G66" s="3">
-        <v>16859500</v>
+        <v>18862100</v>
       </c>
       <c r="H66" s="3">
-        <v>17535100</v>
+        <v>17765800</v>
       </c>
       <c r="I66" s="3">
+        <v>16710900</v>
+      </c>
+      <c r="J66" s="3">
+        <v>17380500</v>
+      </c>
+      <c r="K66" s="3">
         <v>13836100</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>14030500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>14482100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>14450500</v>
       </c>
     </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2467,8 +2754,10 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M67" s="3"/>
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2499,8 +2788,14 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2531,8 +2826,14 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2563,8 +2864,14 @@
       <c r="L70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2595,40 +2902,52 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>7266300</v>
+        <v>7274600</v>
       </c>
       <c r="E72" s="3">
-        <v>6727600</v>
+        <v>7122100</v>
       </c>
       <c r="F72" s="3">
-        <v>6119800</v>
+        <v>6346400</v>
       </c>
       <c r="G72" s="3">
-        <v>6040300</v>
+        <v>6668300</v>
       </c>
       <c r="H72" s="3">
-        <v>5549800</v>
+        <v>6065900</v>
       </c>
       <c r="I72" s="3">
+        <v>5987000</v>
+      </c>
+      <c r="J72" s="3">
+        <v>5500900</v>
+      </c>
+      <c r="K72" s="3">
         <v>5484600</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>5285100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>5113100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>5098600</v>
       </c>
     </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2659,8 +2978,14 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2691,8 +3016,14 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2723,40 +3054,52 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>10220600</v>
+        <v>10221000</v>
       </c>
       <c r="E76" s="3">
-        <v>9666200</v>
+        <v>10060600</v>
       </c>
       <c r="F76" s="3">
-        <v>9048000</v>
+        <v>9274600</v>
       </c>
       <c r="G76" s="3">
-        <v>8963200</v>
+        <v>9581000</v>
       </c>
       <c r="H76" s="3">
-        <v>8470200</v>
+        <v>8968200</v>
       </c>
       <c r="I76" s="3">
+        <v>8884200</v>
+      </c>
+      <c r="J76" s="3">
+        <v>8395500</v>
+      </c>
+      <c r="K76" s="3">
         <v>8301900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>8101100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>7293700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>7264700</v>
       </c>
     </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2787,77 +3130,95 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43729</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43533</v>
+      </c>
+      <c r="F80" s="2">
         <v>43365</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43169</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43001</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>42805</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>42637</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>42441</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>42273</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>42077</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>41909</v>
       </c>
     </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>174800</v>
+        <v>-63300</v>
       </c>
       <c r="E81" s="3">
-        <v>176100</v>
+        <v>71100</v>
       </c>
       <c r="F81" s="3">
-        <v>203500</v>
+        <v>146100</v>
       </c>
       <c r="G81" s="3">
-        <v>91300</v>
+        <v>174500</v>
       </c>
       <c r="H81" s="3">
-        <v>376900</v>
+        <v>201700</v>
       </c>
       <c r="I81" s="3">
+        <v>90500</v>
+      </c>
+      <c r="J81" s="3">
+        <v>373600</v>
+      </c>
+      <c r="K81" s="3">
         <v>256900</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>341700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>234400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-453000</v>
       </c>
     </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2870,40 +3231,48 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M82" s="3"/>
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>559500</v>
+        <v>862300</v>
       </c>
       <c r="E83" s="3">
-        <v>481300</v>
+        <v>751100</v>
       </c>
       <c r="F83" s="3">
-        <v>472200</v>
+        <v>880400</v>
       </c>
       <c r="G83" s="3">
-        <v>392600</v>
+        <v>477000</v>
       </c>
       <c r="H83" s="3">
-        <v>426500</v>
+        <v>468000</v>
       </c>
       <c r="I83" s="3">
+        <v>389100</v>
+      </c>
+      <c r="J83" s="3">
+        <v>422700</v>
+      </c>
+      <c r="K83" s="3">
         <v>360000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>401700</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>343700</v>
       </c>
-      <c r="L83" s="3">
+      <c r="N83" s="3">
         <v>418700</v>
       </c>
     </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2934,8 +3303,14 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2966,8 +3341,14 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2998,8 +3379,14 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3030,8 +3417,14 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3062,40 +3455,52 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>952100</v>
+        <v>1323800</v>
       </c>
       <c r="E89" s="3">
-        <v>748700</v>
+        <v>115100</v>
       </c>
       <c r="F89" s="3">
-        <v>1031700</v>
+        <v>1233300</v>
       </c>
       <c r="G89" s="3">
-        <v>530900</v>
+        <v>742100</v>
       </c>
       <c r="H89" s="3">
-        <v>973000</v>
+        <v>1022600</v>
       </c>
       <c r="I89" s="3">
+        <v>526200</v>
+      </c>
+      <c r="J89" s="3">
+        <v>964400</v>
+      </c>
+      <c r="K89" s="3">
         <v>189100</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>322200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>675500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>524100</v>
       </c>
     </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3108,40 +3513,48 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M90" s="3"/>
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-309100</v>
+        <v>-275400</v>
       </c>
       <c r="E91" s="3">
-        <v>-363900</v>
+        <v>-309000</v>
       </c>
       <c r="F91" s="3">
-        <v>-367800</v>
+        <v>-303800</v>
       </c>
       <c r="G91" s="3">
-        <v>-426500</v>
+        <v>-360700</v>
       </c>
       <c r="H91" s="3">
-        <v>-400400</v>
+        <v>-364600</v>
       </c>
       <c r="I91" s="3">
+        <v>-422700</v>
+      </c>
+      <c r="J91" s="3">
+        <v>-396900</v>
+      </c>
+      <c r="K91" s="3">
         <v>-373000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-469600</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-583300</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-771600</v>
       </c>
     </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3172,8 +3585,14 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3204,40 +3623,52 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-323500</v>
+        <v>-120200</v>
       </c>
       <c r="E94" s="3">
-        <v>-250400</v>
+        <v>-337400</v>
       </c>
       <c r="F94" s="3">
-        <v>-362600</v>
+        <v>-275400</v>
       </c>
       <c r="G94" s="3">
-        <v>-390000</v>
+        <v>-248200</v>
       </c>
       <c r="H94" s="3">
-        <v>-588200</v>
+        <v>-359400</v>
       </c>
       <c r="I94" s="3">
+        <v>-386600</v>
+      </c>
+      <c r="J94" s="3">
+        <v>-583100</v>
+      </c>
+      <c r="K94" s="3">
         <v>-113500</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-408200</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-454300</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-730800</v>
       </c>
     </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3250,40 +3681,48 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M95" s="3"/>
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-26100</v>
+        <v>-25900</v>
       </c>
       <c r="E96" s="3">
         <v>-3900</v>
       </c>
       <c r="F96" s="3">
-        <v>-26100</v>
+        <v>-25900</v>
       </c>
       <c r="G96" s="3">
         <v>-3900</v>
       </c>
       <c r="H96" s="3">
-        <v>-26100</v>
+        <v>-25900</v>
       </c>
       <c r="I96" s="3">
+        <v>-3900</v>
+      </c>
+      <c r="J96" s="3">
+        <v>-25900</v>
+      </c>
+      <c r="K96" s="3">
         <v>199600</v>
       </c>
-      <c r="J96" s="3">
+      <c r="L96" s="3">
         <v>-204800</v>
       </c>
-      <c r="K96" s="3">
+      <c r="M96" s="3">
         <v>-126400</v>
       </c>
-      <c r="L96" s="3">
+      <c r="N96" s="3">
         <v>-308100</v>
       </c>
     </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3314,8 +3753,14 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3346,8 +3791,14 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3378,40 +3829,52 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-975600</v>
+        <v>-755000</v>
       </c>
       <c r="E100" s="3">
-        <v>18300</v>
+        <v>-5200</v>
       </c>
       <c r="F100" s="3">
-        <v>-336500</v>
+        <v>-967000</v>
       </c>
       <c r="G100" s="3">
-        <v>-277800</v>
+        <v>18100</v>
       </c>
       <c r="H100" s="3">
-        <v>-330000</v>
+        <v>-333500</v>
       </c>
       <c r="I100" s="3">
+        <v>-275400</v>
+      </c>
+      <c r="J100" s="3">
+        <v>-327100</v>
+      </c>
+      <c r="K100" s="3">
         <v>-233500</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>66500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>-385800</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>-27700</v>
       </c>
     </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3442,36 +3905,48 @@
       <c r="L101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M101" s="3">
+        <v>0</v>
+      </c>
+      <c r="N101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-346900</v>
+        <v>448600</v>
       </c>
       <c r="E102" s="3">
-        <v>516500</v>
+        <v>-442100</v>
       </c>
       <c r="F102" s="3">
-        <v>332600</v>
+        <v>-343900</v>
       </c>
       <c r="G102" s="3">
-        <v>-137000</v>
+        <v>512000</v>
       </c>
       <c r="H102" s="3">
-        <v>54800</v>
+        <v>329700</v>
       </c>
       <c r="I102" s="3">
+        <v>-135700</v>
+      </c>
+      <c r="J102" s="3">
+        <v>54300</v>
+      </c>
+      <c r="K102" s="3">
         <v>-157800</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-19600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>-164600</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>-234400</v>
       </c>
     </row>
